--- a/docs/画面迁移图.xlsx
+++ b/docs/画面迁移图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面迁移图" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="401">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1764,6 +1764,22 @@
   </si>
   <si>
     <t>暂停打款（需要填写备注和理由）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,14 +2076,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8497,13 +8513,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>614</xdr:row>
+      <xdr:row>615</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>620</xdr:row>
+      <xdr:row>621</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8660,13 +8676,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3495675</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8717,13 +8733,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>510</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3514725</xdr:colOff>
-      <xdr:row>511</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8774,13 +8790,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>672</xdr:row>
+      <xdr:row>673</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3467100</xdr:colOff>
-      <xdr:row>681</xdr:row>
+      <xdr:row>682</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9119,7 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -9168,9 +9184,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E788"/>
+  <dimension ref="A2:E789"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9992,734 +10010,734 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B119" s="5" t="s">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B118" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B120" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B120" s="6" t="s">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C121" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D121" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B121" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D125" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E125" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B126" s="5" t="s">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B127" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="35" t="s">
+    <row r="128" spans="2:5" ht="179.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-    </row>
-    <row r="130" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B130" s="2" t="s">
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+    </row>
+    <row r="131" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B131" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B132" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B136" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B136" s="5"/>
-    </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B138" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B138" s="6" t="s">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B139" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D139" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E139" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B139" s="7" t="s">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B140" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E140" s="7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B141" s="5" t="s">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B142" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B142" s="6" t="s">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B143" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C143" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D143" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E143" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B143" s="9" t="s">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B144" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C144" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D144" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E144" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="7" t="s">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B145" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C145" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D145" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E145" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B147" s="2" t="s">
+    <row r="148" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B148" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>337</v>
-      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>38</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B153" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B153" s="5"/>
-    </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B155" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B155" s="6" t="s">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B156" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D156" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E156" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B156" s="7" t="s">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B157" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E157" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B158" s="5" t="s">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B159" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B159" s="6" t="s">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B160" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C160" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D160" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E160" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B160" s="9" t="s">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B161" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C161" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D161" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E161" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B163" s="2" t="s">
+    <row r="164" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B164" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B165" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B169" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B169" s="5"/>
-    </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B171" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B171" s="4" t="s">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B172" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B173" s="5" t="s">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B174" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B174" s="6" t="s">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B175" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D175" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E175" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B175" s="7"/>
-      <c r="C175" s="7" t="s">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B176" s="7"/>
+      <c r="C176" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E176" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B177" s="5" t="s">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B178" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="35" t="s">
+    <row r="179" spans="2:5" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C178" s="36"/>
-      <c r="D178" s="36"/>
-      <c r="E178" s="36"/>
-    </row>
-    <row r="181" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B181" s="2" t="s">
+      <c r="C179" s="38"/>
+      <c r="D179" s="38"/>
+      <c r="E179" s="38"/>
+    </row>
+    <row r="182" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B182" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B183" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B187" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C187" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B187" s="5"/>
-    </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B189" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B189" s="6" t="s">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B190" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C190" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D190" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E190" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B190" s="7" t="s">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B191" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D191" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="E191" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B192" s="5" t="s">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B193" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B193" s="6" t="s">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B194" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C194" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D194" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E194" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B194" s="7"/>
-      <c r="C194" s="7" t="s">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B195" s="7"/>
+      <c r="C195" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E195" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B196" s="5" t="s">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B197" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="35" t="s">
+    <row r="198" spans="2:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C197" s="36"/>
-      <c r="D197" s="36"/>
-      <c r="E197" s="36"/>
-    </row>
-    <row r="200" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B200" s="2" t="s">
+      <c r="C198" s="38"/>
+      <c r="D198" s="38"/>
+      <c r="E198" s="38"/>
+    </row>
+    <row r="201" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B201" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B202" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B206" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C206" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="5"/>
-    </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="5"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B208" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B208" s="6" t="s">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B209" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C209" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D209" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E209" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B209" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B210" s="7" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B211" s="7" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B212" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B213" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B214" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E214" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B215" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="7" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C215" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="11" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="216" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B216" s="11" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
     </row>
     <row r="217" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B217" s="11" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D217" s="11" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B218" s="11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C218" s="11" t="s">
         <v>42</v>
@@ -10728,40 +10746,40 @@
         <v>9</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="219" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B219" s="11" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C219" s="11" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D219" s="11" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="E219" s="11" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="220" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B220" s="11" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B221" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C221" s="11" t="s">
         <v>42</v>
@@ -10770,31 +10788,35 @@
         <v>9</v>
       </c>
       <c r="E221" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B222" s="7" t="s">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B223" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E222" s="7" t="s">
+      <c r="E223" s="7" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.15">
@@ -10804,139 +10826,135 @@
         <v>338</v>
       </c>
       <c r="E224" s="26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B225" s="26" t="s">
-        <v>374</v>
-      </c>
+      <c r="B225" s="26"/>
       <c r="C225" s="26"/>
       <c r="D225" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E225" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B226" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="E225" s="26" t="s">
+      <c r="E226" s="26" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B227" s="5" t="s">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B228" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B228" s="6" t="s">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B229" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C229" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="6" t="s">
+      <c r="D229" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="E229" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B229" s="7" t="s">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B230" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C230" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D230" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E229" s="7" t="s">
+      <c r="E230" s="7" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B230" s="27"/>
-      <c r="C230" s="27"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-    </row>
-    <row r="232" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B232" s="2" t="s">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+    </row>
+    <row r="233" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B233" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B234" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>376</v>
-      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B238" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C238" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B238" s="5"/>
-    </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="5"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B240" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B240" s="6" t="s">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B241" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C241" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D240" s="6" t="s">
+      <c r="D241" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="E241" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B241" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>64</v>
@@ -10945,26 +10963,26 @@
         <v>35</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>86</v>
@@ -10973,166 +10991,166 @@
         <v>83</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B245" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E245" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B246" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E246" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B247" s="5" t="s">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B248" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B248" s="6" t="s">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B249" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C249" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D248" s="6" t="s">
+      <c r="D249" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E248" s="6" t="s">
+      <c r="E249" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B249" s="7"/>
-      <c r="C249" s="7" t="s">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B250" s="7"/>
+      <c r="C250" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D250" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E249" s="7" t="s">
+      <c r="E250" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B251" s="5" t="s">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B252" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="235.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B252" s="35" t="s">
+    <row r="253" spans="2:5" ht="235.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B253" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C252" s="35"/>
-      <c r="D252" s="35"/>
-      <c r="E252" s="35"/>
-    </row>
-    <row r="255" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B255" s="28" t="s">
+      <c r="C253" s="35"/>
+      <c r="D253" s="35"/>
+      <c r="E253" s="35"/>
+    </row>
+    <row r="256" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B256" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C255" s="29"/>
-      <c r="D255" s="29"/>
-      <c r="E255" s="29"/>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="8"/>
+      <c r="C256" s="29"/>
+      <c r="D256" s="29"/>
+      <c r="E256" s="29"/>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B257" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>376</v>
-      </c>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B258" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" s="30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B261" s="30"/>
-      <c r="C261" s="8"/>
+      <c r="B261" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>378</v>
+      </c>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B262" s="30" t="s">
-        <v>18</v>
-      </c>
+      <c r="B262" s="30"/>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B263" s="31" t="s">
+      <c r="B263" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="8"/>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B264" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C263" s="31" t="s">
+      <c r="C264" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D263" s="31" t="s">
+      <c r="D264" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E263" s="31" t="s">
+      <c r="E264" s="31" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B264" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C264" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D264" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E264" s="26" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>64</v>
@@ -11141,26 +11159,26 @@
         <v>9</v>
       </c>
       <c r="E265" s="26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E266" s="26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B267" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>27</v>
@@ -11169,164 +11187,164 @@
         <v>34</v>
       </c>
       <c r="E267" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B268" s="26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D268" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E268" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B269" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C269" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D269" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-    </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B270" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="B270" s="8"/>
       <c r="C270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B271" s="31" t="s">
+      <c r="B271" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="8"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B272" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C271" s="31" t="s">
+      <c r="C272" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D271" s="31" t="s">
+      <c r="D272" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E271" s="31" t="s">
+      <c r="E272" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B272" s="26"/>
-      <c r="C272" s="26" t="s">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B273" s="26"/>
+      <c r="C273" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D272" s="26" t="s">
+      <c r="D273" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E272" s="26" t="s">
+      <c r="E273" s="26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-    </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B274" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="B274" s="8"/>
       <c r="C274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
-    <row r="275" spans="2:5" ht="235.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B275" s="38" t="s">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B275" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="8"/>
+    </row>
+    <row r="276" spans="2:5" ht="235.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B276" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="C275" s="38"/>
-      <c r="D275" s="38"/>
-      <c r="E275" s="38"/>
-    </row>
-    <row r="278" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B278" s="2" t="s">
+      <c r="C276" s="37"/>
+      <c r="D276" s="37"/>
+      <c r="E276" s="37"/>
+    </row>
+    <row r="279" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B279" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B280" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C280" s="10" t="s">
-        <v>339</v>
-      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B281" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B282" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B283" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B284" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C284" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B284" s="5"/>
-    </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="5"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B286" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B286" s="6" t="s">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B287" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C286" s="6" t="s">
+      <c r="C287" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D286" s="6" t="s">
+      <c r="D287" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E286" s="6" t="s">
+      <c r="E287" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B287" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D287" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E287" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B288" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>64</v>
@@ -11335,160 +11353,160 @@
         <v>9</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B289" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B290" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C290" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D290" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E289" s="7" t="s">
+      <c r="E290" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B291" s="5" t="s">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B292" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B292" s="6" t="s">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B293" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C292" s="6" t="s">
+      <c r="C293" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D292" s="6" t="s">
+      <c r="D293" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E293" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B293" s="7"/>
-      <c r="C293" s="7" t="s">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B294" s="7"/>
+      <c r="C294" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D293" s="7" t="s">
+      <c r="D294" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E293" s="7" t="s">
+      <c r="E294" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B295" s="5" t="s">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B296" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="238.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B296" s="35" t="s">
+    <row r="297" spans="2:5" ht="238.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B297" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="C296" s="35"/>
-      <c r="D296" s="35"/>
-      <c r="E296" s="35"/>
-    </row>
-    <row r="299" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B299" s="2" t="s">
+      <c r="C297" s="35"/>
+      <c r="D297" s="35"/>
+      <c r="E297" s="35"/>
+    </row>
+    <row r="300" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B300" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B301" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>305</v>
-      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3"/>
+      <c r="E300" s="3"/>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B302" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B303" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B304" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B305" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C304" s="4" t="s">
+      <c r="C305" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B305" s="5"/>
-    </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B306" s="5" t="s">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B307" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B307" s="6" t="s">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B308" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C308" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D307" s="6" t="s">
+      <c r="D308" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E307" s="6" t="s">
+      <c r="E308" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B308" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C308" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D308" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E308" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B309" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D309" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B310" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>194</v>
@@ -11497,827 +11515,835 @@
         <v>9</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B311" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="D311" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B312" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D312" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>379</v>
+        <v>200</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B313" s="7" t="s">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>382</v>
+        <v>202</v>
       </c>
       <c r="D313" s="7" t="s">
-        <v>343</v>
+        <v>9</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B314" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E314" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B315" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C315" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D314" s="7" t="s">
+      <c r="D315" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E314" s="7" t="s">
+      <c r="E315" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B316" s="5" t="s">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B317" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B317" s="6" t="s">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B318" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C318" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D317" s="6" t="s">
+      <c r="D318" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E317" s="6" t="s">
+      <c r="E318" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B318" s="7" t="s">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B319" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C319" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D318" s="7" t="s">
+      <c r="D319" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E318" s="7" t="s">
+      <c r="E319" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B319" s="27"/>
-      <c r="C319" s="27"/>
-      <c r="D319" s="27"/>
-      <c r="E319" s="27"/>
-    </row>
-    <row r="321" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B321" s="2" t="s">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B320" s="27"/>
+      <c r="C320" s="27"/>
+      <c r="D320" s="27"/>
+      <c r="E320" s="27"/>
+    </row>
+    <row r="322" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B322" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B323" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C323" s="10" t="s">
-        <v>304</v>
-      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B324" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>210</v>
+        <v>5</v>
+      </c>
+      <c r="C324" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B325" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B326" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B327" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C326" s="4" t="s">
+      <c r="C327" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B327" s="5"/>
-    </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B328" s="5" t="s">
+      <c r="B328" s="5"/>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B329" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B329" s="6" t="s">
+    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B330" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C330" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D329" s="6" t="s">
+      <c r="D330" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E329" s="6" t="s">
+      <c r="E330" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B330" s="7" t="s">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B331" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C331" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D330" s="7" t="s">
+      <c r="D331" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E330" s="7" t="s">
+      <c r="E331" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B332" s="5" t="s">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B333" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B333" s="6" t="s">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B334" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C334" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D333" s="6" t="s">
+      <c r="D334" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E333" s="6" t="s">
+      <c r="E334" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B334" s="7"/>
-      <c r="C334" s="7" t="s">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B335" s="7"/>
+      <c r="C335" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D334" s="7" t="s">
+      <c r="D335" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E334" s="7" t="s">
+      <c r="E335" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B336" s="5" t="s">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B337" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="247.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B337" s="35" t="s">
+    <row r="338" spans="2:5" ht="247.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B338" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="C337" s="35"/>
-      <c r="D337" s="35"/>
-      <c r="E337" s="35"/>
-    </row>
-    <row r="340" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B340" s="2" t="s">
+      <c r="C338" s="35"/>
+      <c r="D338" s="35"/>
+      <c r="E338" s="35"/>
+    </row>
+    <row r="341" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B341" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B342" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C342" s="10" t="s">
-        <v>310</v>
-      </c>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B343" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B344" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B345" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B346" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C345" s="4" t="s">
+      <c r="C346" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B346" s="5"/>
-    </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B347" s="5" t="s">
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B348" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B348" s="6" t="s">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B349" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C348" s="6" t="s">
+      <c r="C349" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D348" s="6" t="s">
+      <c r="D349" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E348" s="6" t="s">
+      <c r="E349" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B349" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D349" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E349" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B350" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D350" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B351" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C351" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D350" s="7" t="s">
+      <c r="D351" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E350" s="7" t="s">
+      <c r="E351" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B352" s="5" t="s">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B353" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B353" s="4" t="s">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B354" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B356" s="2" t="s">
+    <row r="357" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B357" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B358" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C358" s="8"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
+      <c r="E357" s="3"/>
     </row>
     <row r="359" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B359" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C359" s="8"/>
     </row>
     <row r="360" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B360" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B361" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="362" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B362" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C361" s="4" t="s">
+      <c r="C362" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B362" s="5"/>
-    </row>
     <row r="363" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B363" s="5" t="s">
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B364" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B364" s="6" t="s">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B365" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C365" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D364" s="6" t="s">
+      <c r="D365" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E364" s="6" t="s">
+      <c r="E365" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
-      <c r="D365" s="9"/>
-      <c r="E365" s="9"/>
-    </row>
     <row r="366" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B366" s="10"/>
-      <c r="C366" s="10"/>
-      <c r="D366" s="10"/>
-      <c r="E366" s="10"/>
+      <c r="B366" s="9"/>
+      <c r="C366" s="9"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="9"/>
     </row>
     <row r="367" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B367" s="5" t="s">
+      <c r="B367" s="10"/>
+      <c r="C367" s="10"/>
+      <c r="D367" s="10"/>
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B368" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B368" s="4" t="s">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B369" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B371" s="2" t="s">
+    <row r="372" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B372" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C371" s="3"/>
-      <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
-    </row>
-    <row r="373" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B373" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C373" s="8"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
+      <c r="E372" s="3"/>
     </row>
     <row r="374" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B374" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C374" s="8"/>
     </row>
     <row r="375" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B375" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="376" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B376" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B377" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C376" s="4" t="s">
+      <c r="C377" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="377" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B377" s="5"/>
-    </row>
     <row r="378" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B378" s="5" t="s">
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B379" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B379" s="6" t="s">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B380" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C379" s="6" t="s">
+      <c r="C380" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D379" s="6" t="s">
+      <c r="D380" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E379" s="6" t="s">
+      <c r="E380" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B380" s="7" t="s">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B381" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C380" s="7" t="s">
+      <c r="C381" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D380" s="7" t="s">
+      <c r="D381" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E380" s="7" t="s">
+      <c r="E381" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="382" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B382" s="5" t="s">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B383" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="383" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B383" s="4" t="s">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B384" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="386" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B386" s="2" t="s">
+    <row r="387" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B387" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C386" s="3"/>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
-    </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B388" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C388" s="8"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B389" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C389" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C389" s="8"/>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B390" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B391" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B392" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C391" s="4" t="s">
+      <c r="C392" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B392" s="5"/>
-    </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="5"/>
+    </row>
+    <row r="394" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B394" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B394" s="6" t="s">
+    <row r="395" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B395" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C395" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D394" s="6" t="s">
+      <c r="D395" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E394" s="6" t="s">
+      <c r="E395" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B395" s="7" t="s">
+    <row r="396" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B396" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C396" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D395" s="7" t="s">
+      <c r="D396" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E395" s="7" t="s">
+      <c r="E396" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B397" s="5" t="s">
+    <row r="398" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B398" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B398" s="4" t="s">
+    <row r="399" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B399" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B401" s="2" t="s">
+    <row r="402" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B402" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C401" s="3"/>
-      <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
-    </row>
-    <row r="403" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B403" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C403" s="10" t="s">
-        <v>316</v>
-      </c>
+      <c r="C402" s="3"/>
+      <c r="D402" s="3"/>
+      <c r="E402" s="3"/>
     </row>
     <row r="404" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B404" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="405" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B405" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="406" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B406" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="407" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B407" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C406" s="4" t="s">
+      <c r="C407" s="4" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="407" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B407" s="5"/>
-    </row>
     <row r="408" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B408" s="5" t="s">
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B409" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B409" s="6" t="s">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B410" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C410" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D409" s="6" t="s">
+      <c r="D410" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E409" s="6" t="s">
+      <c r="E410" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="410" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B410" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D410" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E410" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="411" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B411" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D411" s="7" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="E411" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="412" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B412" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E412" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="413" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B413" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C413" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="D413" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E412" s="7" t="s">
+      <c r="E413" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="414" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B414" s="5" t="s">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B415" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="415" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B415" s="4" t="s">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B416" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B418" s="2" t="s">
+    <row r="419" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B419" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C418" s="3"/>
-      <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
-    </row>
-    <row r="420" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B420" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C420" s="10" t="s">
-        <v>317</v>
-      </c>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+      <c r="E419" s="3"/>
     </row>
     <row r="421" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B421" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>210</v>
+        <v>5</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="422" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B422" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="423" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B423" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="424" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B424" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C423" s="4" t="s">
+      <c r="C424" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="424" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B424" s="5"/>
-    </row>
     <row r="425" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B425" s="5" t="s">
+      <c r="B425" s="5"/>
+    </row>
+    <row r="426" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B426" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B426" s="6" t="s">
+    <row r="427" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B427" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C426" s="6" t="s">
+      <c r="C427" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D426" s="6" t="s">
+      <c r="D427" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E426" s="6" t="s">
+      <c r="E427" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="427" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B427" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D427" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E427" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="428" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B428" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C428" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D428" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="429" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B429" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C429" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D428" s="7" t="s">
+      <c r="D429" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E428" s="7" t="s">
+      <c r="E429" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="430" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B430" s="5" t="s">
+    <row r="431" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B431" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="431" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B431" s="6" t="s">
+    <row r="432" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B432" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C431" s="6" t="s">
+      <c r="C432" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D431" s="6" t="s">
+      <c r="D432" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E431" s="6" t="s">
+      <c r="E432" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B432" s="7"/>
-      <c r="C432" s="7" t="s">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B433" s="7"/>
+      <c r="C433" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D432" s="7" t="s">
+      <c r="D433" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E432" s="7" t="s">
+      <c r="E433" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="434" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B434" s="5" t="s">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B435" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="435" spans="2:5" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B435" s="35" t="s">
+    <row r="436" spans="2:5" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B436" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="C435" s="35"/>
-      <c r="D435" s="35"/>
-      <c r="E435" s="35"/>
-    </row>
-    <row r="436" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B436" s="12"/>
-      <c r="C436" s="12"/>
-      <c r="D436" s="12"/>
-      <c r="E436" s="12"/>
+      <c r="C436" s="35"/>
+      <c r="D436" s="35"/>
+      <c r="E436" s="35"/>
     </row>
     <row r="437" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B437" s="12"/>
@@ -12325,872 +12351,864 @@
       <c r="D437" s="12"/>
       <c r="E437" s="12"/>
     </row>
-    <row r="438" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B438" s="2" t="s">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B438" s="12"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
+    </row>
+    <row r="439" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B439" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C438" s="3"/>
-      <c r="D438" s="3"/>
-      <c r="E438" s="3"/>
-    </row>
-    <row r="440" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B440" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C440" s="10" t="s">
-        <v>319</v>
-      </c>
+      <c r="C439" s="3"/>
+      <c r="D439" s="3"/>
+      <c r="E439" s="3"/>
     </row>
     <row r="441" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B441" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C441" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="442" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B442" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="443" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B443" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B444" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C443" s="4" t="s">
+      <c r="C444" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="444" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B444" s="5"/>
-    </row>
     <row r="445" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B445" s="5" t="s">
+      <c r="B445" s="5"/>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B446" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="446" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B446" s="6" t="s">
+    <row r="447" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B447" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C446" s="6" t="s">
+      <c r="C447" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D446" s="6" t="s">
+      <c r="D447" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E446" s="6" t="s">
+      <c r="E447" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="447" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B447" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D447" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E447" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="448" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B448" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C448" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D448" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E448" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B449" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C448" s="7" t="s">
+      <c r="C449" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D448" s="7" t="s">
+      <c r="D449" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E448" s="7" t="s">
+      <c r="E449" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="450" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B450" s="5" t="s">
+    <row r="451" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B451" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="451" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B451" s="4" t="s">
+    <row r="452" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B452" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="454" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B454" s="2" t="s">
+    <row r="455" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B455" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C454" s="3"/>
-      <c r="D454" s="3"/>
-      <c r="E454" s="3"/>
-    </row>
-    <row r="456" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B456" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C456" s="8"/>
+      <c r="C455" s="3"/>
+      <c r="D455" s="3"/>
+      <c r="E455" s="3"/>
     </row>
     <row r="457" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B457" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C457" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C457" s="8"/>
     </row>
     <row r="458" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B458" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="459" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B459" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="460" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B460" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C459" s="4" t="s">
+      <c r="C460" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="460" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B460" s="5"/>
-    </row>
     <row r="461" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B461" s="5" t="s">
+      <c r="B461" s="5"/>
+    </row>
+    <row r="462" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B462" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="462" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B462" s="6" t="s">
+    <row r="463" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B463" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C462" s="6" t="s">
+      <c r="C463" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D462" s="6" t="s">
+      <c r="D463" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E462" s="6" t="s">
+      <c r="E463" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="463" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B463" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C463" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D463" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E463" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="464" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B464" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D464" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="465" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B465" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C464" s="7" t="s">
+      <c r="C465" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D464" s="7" t="s">
+      <c r="D465" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E464" s="7" t="s">
+      <c r="E465" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="466" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B466" s="5" t="s">
+    <row r="467" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B467" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="467" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B467" s="4" t="s">
+    <row r="468" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B468" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B470" s="2" t="s">
+    <row r="471" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B471" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C470" s="3"/>
-      <c r="D470" s="3"/>
-      <c r="E470" s="3"/>
-    </row>
-    <row r="472" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B472" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C472" s="8"/>
+      <c r="C471" s="3"/>
+      <c r="D471" s="3"/>
+      <c r="E471" s="3"/>
     </row>
     <row r="473" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B473" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C473" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C473" s="8"/>
     </row>
     <row r="474" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B474" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="475" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B475" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B476" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C475" s="4" t="s">
+      <c r="C476" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="476" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B476" s="5"/>
-    </row>
     <row r="477" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B477" s="5" t="s">
+      <c r="B477" s="5"/>
+    </row>
+    <row r="478" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B478" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="478" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B478" s="6" t="s">
+    <row r="479" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B479" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C478" s="6" t="s">
+      <c r="C479" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D478" s="6" t="s">
+      <c r="D479" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E478" s="6" t="s">
+      <c r="E479" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="479" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B479" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C479" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D479" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E479" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="480" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B480" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D480" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E480" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="481" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B481" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C480" s="7" t="s">
+      <c r="C481" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D480" s="7" t="s">
+      <c r="D481" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E480" s="7" t="s">
+      <c r="E481" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="482" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B482" s="5" t="s">
+    <row r="483" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B483" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="483" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B483" s="4" t="s">
+    <row r="484" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B484" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B486" s="2" t="s">
+    <row r="487" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B487" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C486" s="3"/>
-      <c r="D486" s="3"/>
-      <c r="E486" s="3"/>
-    </row>
-    <row r="488" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B488" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C488" s="8"/>
+      <c r="C487" s="3"/>
+      <c r="D487" s="3"/>
+      <c r="E487" s="3"/>
     </row>
     <row r="489" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B489" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C489" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C489" s="8"/>
     </row>
     <row r="490" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B490" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="491" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B491" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="492" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B492" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C491" s="4" t="s">
+      <c r="C492" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="492" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B492" s="5"/>
-    </row>
     <row r="493" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B493" s="5" t="s">
+      <c r="B493" s="5"/>
+    </row>
+    <row r="494" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B494" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="494" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B494" s="6" t="s">
+    <row r="495" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B495" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C494" s="6" t="s">
+      <c r="C495" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D494" s="6" t="s">
+      <c r="D495" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E494" s="6" t="s">
+      <c r="E495" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="495" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B495" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C495" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D495" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E495" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="496" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B496" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D496" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E496" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="497" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B497" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C496" s="7" t="s">
+      <c r="C497" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D496" s="7" t="s">
+      <c r="D497" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E496" s="7" t="s">
+      <c r="E497" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="498" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B498" s="5" t="s">
+    <row r="499" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B499" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="499" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B499" s="4" t="s">
+    <row r="500" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B500" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="502" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B502" s="2" t="s">
+    <row r="503" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B503" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C502" s="3"/>
-      <c r="D502" s="3"/>
-      <c r="E502" s="3"/>
-    </row>
-    <row r="504" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B504" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C504" s="8"/>
+      <c r="C503" s="3"/>
+      <c r="D503" s="3"/>
+      <c r="E503" s="3"/>
     </row>
     <row r="505" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B505" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C505" s="8"/>
     </row>
     <row r="506" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B506" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="507" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B507" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="508" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B508" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C507" s="4" t="s">
+      <c r="C508" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="508" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B508" s="5"/>
-    </row>
     <row r="509" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B509" s="5" t="s">
+      <c r="B509" s="5"/>
+    </row>
+    <row r="510" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B510" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="510" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B510" s="6" t="s">
+    <row r="511" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B511" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C510" s="6" t="s">
+      <c r="C511" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D510" s="6" t="s">
+      <c r="D511" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E510" s="6" t="s">
+      <c r="E511" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B511" s="9"/>
-      <c r="C511" s="9"/>
-      <c r="D511" s="9"/>
-      <c r="E511" s="9"/>
-    </row>
     <row r="512" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B512" s="10"/>
-      <c r="C512" s="10"/>
-      <c r="D512" s="10"/>
-      <c r="E512" s="10"/>
+      <c r="B512" s="9"/>
+      <c r="C512" s="9"/>
+      <c r="D512" s="9"/>
+      <c r="E512" s="9"/>
     </row>
     <row r="513" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B513" s="5" t="s">
+      <c r="B513" s="10"/>
+      <c r="C513" s="10"/>
+      <c r="D513" s="10"/>
+      <c r="E513" s="10"/>
+    </row>
+    <row r="514" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B514" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="514" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B514" s="4" t="s">
+    <row r="515" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B515" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B517" s="2" t="s">
+    <row r="518" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B518" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C517" s="3"/>
-      <c r="D517" s="3"/>
-      <c r="E517" s="3"/>
-    </row>
-    <row r="519" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B519" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C519" s="8"/>
+      <c r="C518" s="3"/>
+      <c r="D518" s="3"/>
+      <c r="E518" s="3"/>
     </row>
     <row r="520" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B520" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C520" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C520" s="8"/>
     </row>
     <row r="521" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B521" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="522" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B522" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B523" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C522" s="4" t="s">
+      <c r="C523" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="523" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B523" s="5"/>
-    </row>
     <row r="524" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B524" s="5" t="s">
+      <c r="B524" s="5"/>
+    </row>
+    <row r="525" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B525" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B525" s="6" t="s">
+    <row r="526" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B526" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C525" s="6" t="s">
+      <c r="C526" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D525" s="6" t="s">
+      <c r="D526" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E525" s="6" t="s">
+      <c r="E526" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B526" s="7" t="s">
+    <row r="527" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B527" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C526" s="7" t="s">
+      <c r="C527" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D526" s="7" t="s">
+      <c r="D527" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E526" s="7" t="s">
+      <c r="E527" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="528" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B528" s="5" t="s">
+    <row r="529" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B529" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="529" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B529" s="4" t="s">
+    <row r="530" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B530" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="532" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B532" s="2" t="s">
+    <row r="533" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B533" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C532" s="3"/>
-      <c r="D532" s="3"/>
-      <c r="E532" s="3"/>
-    </row>
-    <row r="534" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B534" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C534" s="8"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="3"/>
+      <c r="E533" s="3"/>
     </row>
     <row r="535" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B535" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C535" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C535" s="8"/>
     </row>
     <row r="536" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B536" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="537" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B537" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="538" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B538" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C537" s="4" t="s">
+      <c r="C538" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="538" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B538" s="5"/>
-    </row>
     <row r="539" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B539" s="5" t="s">
+      <c r="B539" s="5"/>
+    </row>
+    <row r="540" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B540" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="540" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B540" s="6" t="s">
+    <row r="541" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B541" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C540" s="6" t="s">
+      <c r="C541" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D540" s="6" t="s">
+      <c r="D541" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E540" s="6" t="s">
+      <c r="E541" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B541" s="7" t="s">
+    <row r="542" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B542" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C541" s="7" t="s">
+      <c r="C542" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D541" s="7" t="s">
+      <c r="D542" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E541" s="7" t="s">
+      <c r="E542" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="542" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B542" s="32"/>
-      <c r="C542" s="32" t="s">
+    <row r="543" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B543" s="32"/>
+      <c r="C543" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="D542" s="32" t="s">
+      <c r="D543" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="E542" s="32" t="s">
+      <c r="E543" s="32" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="544" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B544" s="5" t="s">
+    <row r="545" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B545" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="545" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B545" s="4" t="s">
+    <row r="546" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B546" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="548" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B548" s="2" t="s">
+    <row r="549" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B549" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C548" s="3"/>
-      <c r="D548" s="3"/>
-      <c r="E548" s="3"/>
-    </row>
-    <row r="550" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B550" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C550" s="8"/>
+      <c r="C549" s="3"/>
+      <c r="D549" s="3"/>
+      <c r="E549" s="3"/>
     </row>
     <row r="551" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B551" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C551" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C551" s="8"/>
     </row>
     <row r="552" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B552" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="553" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B553" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="554" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B554" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C553" s="4" t="s">
+      <c r="C554" s="4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="554" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B554" s="5"/>
-    </row>
     <row r="555" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B555" s="5" t="s">
+      <c r="B555" s="5"/>
+    </row>
+    <row r="556" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B556" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="556" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B556" s="6" t="s">
+    <row r="557" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B557" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C556" s="6" t="s">
+      <c r="C557" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D556" s="6" t="s">
+      <c r="D557" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E556" s="6" t="s">
+      <c r="E557" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B557" s="7" t="s">
+    <row r="558" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B558" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C557" s="7" t="s">
+      <c r="C558" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D557" s="7" t="s">
+      <c r="D558" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E557" s="7" t="s">
+      <c r="E558" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="559" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B559" s="5" t="s">
+    <row r="560" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B560" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="560" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B560" s="4" t="s">
+    <row r="561" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B561" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="563" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B563" s="2" t="s">
+    <row r="564" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B564" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C563" s="3"/>
-      <c r="D563" s="3"/>
-      <c r="E563" s="3"/>
-    </row>
-    <row r="565" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B565" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C565" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="C564" s="3"/>
+      <c r="D564" s="3"/>
+      <c r="E564" s="3"/>
     </row>
     <row r="566" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B566" s="5" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="567" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B567" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="568" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B568" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B569" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C568" s="4" t="s">
+      <c r="C569" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="569" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B569" s="5"/>
-    </row>
     <row r="570" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B570" s="5" t="s">
+      <c r="B570" s="5"/>
+    </row>
+    <row r="571" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B571" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="571" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B571" s="6" t="s">
+    <row r="572" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B572" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C571" s="6" t="s">
+      <c r="C572" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D571" s="6" t="s">
+      <c r="D572" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E571" s="6" t="s">
+      <c r="E572" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B572" s="7" t="s">
+    <row r="573" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B573" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C572" s="7" t="s">
+      <c r="C573" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D572" s="7" t="s">
+      <c r="D573" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E572" s="7" t="s">
+      <c r="E573" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="574" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B574" s="5" t="s">
+    <row r="575" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B575" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="575" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B575" s="6" t="s">
+    <row r="576" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B576" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C575" s="6" t="s">
+      <c r="C576" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D575" s="6" t="s">
+      <c r="D576" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E575" s="6" t="s">
+      <c r="E576" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="576" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B576" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C576" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D576" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E576" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="577" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B577" s="7" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D577" s="7" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
     </row>
     <row r="578" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B578" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C578" s="7" t="s">
         <v>157</v>
@@ -13199,199 +13217,203 @@
         <v>158</v>
       </c>
       <c r="E578" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="579" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B579" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D579" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E579" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="580" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B580" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="D580" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E580" s="7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="581" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B581" s="7" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D581" s="7" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E581" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="582" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B582" s="7" t="s">
-        <v>386</v>
+        <v>126</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="D582" s="7" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E582" s="7" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="583" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B583" s="7" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D583" s="7" t="s">
         <v>158</v>
       </c>
       <c r="E583" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="584" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B584" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D584" s="7" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E584" s="7" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
     </row>
     <row r="585" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B585" s="7" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D585" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E585" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="586" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B586" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D586" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E586" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="587" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B587" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D587" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E587" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="588" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B588" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D588" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E588" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="589" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B589" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D589" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E589" s="7" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="589" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B589" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C589" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D589" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E589" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="590" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B590" s="13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C590" s="13" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D590" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E590" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="591" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B591" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C591" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D591" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E591" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="591" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B591" s="7" t="s">
+    <row r="592" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B592" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C591" s="7" t="s">
+      <c r="C592" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D591" s="7" t="s">
+      <c r="D592" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E591" s="7" t="s">
+      <c r="E592" s="7" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="592" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B592" s="34"/>
-      <c r="C592" s="34"/>
-      <c r="D592" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="E592" s="34" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="593" spans="2:5" x14ac:dyDescent="0.15">
@@ -13401,136 +13423,132 @@
         <v>338</v>
       </c>
       <c r="E593" s="34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="594" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B594" s="34" t="s">
-        <v>374</v>
-      </c>
+      <c r="B594" s="34"/>
       <c r="C594" s="34"/>
       <c r="D594" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E594" s="34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="595" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B595" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="C595" s="34"/>
+      <c r="D595" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="E594" s="34" t="s">
+      <c r="E595" s="34" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="595" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B595" s="14" t="s">
+    <row r="596" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B596" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C595" s="14" t="s">
+      <c r="C596" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D595" s="14" t="s">
+      <c r="D596" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E595" s="14" t="s">
+      <c r="E596" s="14" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="596" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B596" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C596" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D596" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E596" s="15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="597" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B597" s="15" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C597" s="15" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D597" s="15" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E597" s="15" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="598" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B598" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C598" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D598" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E598" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="599" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B599" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C598" s="15" t="s">
+      <c r="C599" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D598" s="15" t="s">
+      <c r="D599" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E598" s="15" t="s">
+      <c r="E599" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="599" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B599" s="16" t="s">
+    <row r="600" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B600" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C599" s="16" t="s">
+      <c r="C600" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D599" s="16" t="s">
+      <c r="D600" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E599" s="16" t="s">
+      <c r="E600" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="600" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B600" s="17" t="s">
+    <row r="601" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B601" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C600" s="17" t="s">
+      <c r="C601" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D600" s="17" t="s">
+      <c r="D601" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E600" s="17" t="s">
+      <c r="E601" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="601" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B601" s="18" t="s">
+    <row r="602" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B602" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C601" s="18" t="s">
+      <c r="C602" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D601" s="18" t="s">
+      <c r="D602" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E601" s="18" t="s">
+      <c r="E602" s="18" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="602" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B602" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C602" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D602" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E602" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="603" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B603" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C603" s="19" t="s">
         <v>147</v>
@@ -13539,301 +13557,301 @@
         <v>83</v>
       </c>
       <c r="E603" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="604" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B604" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C604" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D604" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E604" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="604" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B604" s="19"/>
-      <c r="C604" s="19"/>
-      <c r="D604" s="19"/>
-      <c r="E604" s="19" t="s">
+    <row r="605" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B605" s="19"/>
+      <c r="C605" s="19"/>
+      <c r="D605" s="19"/>
+      <c r="E605" s="19" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="605" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B605" s="20" t="s">
+    <row r="606" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B606" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C605" s="20" t="s">
+      <c r="C606" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D605" s="20" t="s">
+      <c r="D606" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E605" s="20" t="s">
+      <c r="E606" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="607" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B607" s="5" t="s">
+    <row r="608" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B608" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="608" spans="2:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B608" s="35" t="s">
+    <row r="609" spans="2:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B609" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="C608" s="35"/>
-      <c r="D608" s="35"/>
-      <c r="E608" s="35"/>
-    </row>
-    <row r="611" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B611" s="21" t="s">
+      <c r="C609" s="35"/>
+      <c r="D609" s="35"/>
+      <c r="E609" s="35"/>
+    </row>
+    <row r="612" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B612" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C611" s="22"/>
-      <c r="D611" s="22"/>
-      <c r="E611" s="22"/>
-    </row>
-    <row r="612" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B612" s="23"/>
-      <c r="C612" s="23"/>
-      <c r="D612" s="23"/>
-      <c r="E612" s="23"/>
+      <c r="C612" s="22"/>
+      <c r="D612" s="22"/>
+      <c r="E612" s="22"/>
     </row>
     <row r="613" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B613" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="B613" s="23"/>
       <c r="C613" s="23"/>
       <c r="D613" s="23"/>
       <c r="E613" s="23"/>
     </row>
     <row r="614" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B614" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C614" s="23" t="s">
-        <v>210</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C614" s="23"/>
       <c r="D614" s="23"/>
       <c r="E614" s="23"/>
     </row>
     <row r="615" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B615" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C615" s="23" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D615" s="23"/>
       <c r="E615" s="23"/>
     </row>
     <row r="616" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B616" s="24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C616" s="23" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="D616" s="23"/>
       <c r="E616" s="23"/>
     </row>
     <row r="617" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B617" s="24"/>
-      <c r="C617" s="23"/>
+      <c r="B617" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C617" s="23" t="s">
+        <v>242</v>
+      </c>
       <c r="D617" s="23"/>
       <c r="E617" s="23"/>
     </row>
     <row r="618" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B618" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="B618" s="24"/>
       <c r="C618" s="23"/>
       <c r="D618" s="23"/>
       <c r="E618" s="23"/>
     </row>
     <row r="619" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B619" s="25" t="s">
+      <c r="B619" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C619" s="23"/>
+      <c r="D619" s="23"/>
+      <c r="E619" s="23"/>
+    </row>
+    <row r="620" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B620" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C619" s="25" t="s">
+      <c r="C620" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D619" s="25" t="s">
+      <c r="D620" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E619" s="25" t="s">
+      <c r="E620" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B620" s="11" t="s">
+    <row r="621" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B621" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C620" s="11" t="s">
+      <c r="C621" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D620" s="11" t="s">
+      <c r="D621" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E620" s="11" t="s">
+      <c r="E621" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="621" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B621" s="23"/>
-      <c r="C621" s="23"/>
-      <c r="D621" s="23"/>
-      <c r="E621" s="23"/>
-    </row>
     <row r="622" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B622" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="B622" s="23"/>
       <c r="C622" s="23"/>
       <c r="D622" s="23"/>
       <c r="E622" s="23"/>
     </row>
     <row r="623" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B623" s="23"/>
+      <c r="B623" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C623" s="23"/>
       <c r="D623" s="23"/>
       <c r="E623" s="23"/>
     </row>
     <row r="624" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B624" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="B624" s="23"/>
       <c r="C624" s="23"/>
       <c r="D624" s="23"/>
       <c r="E624" s="23"/>
     </row>
-    <row r="627" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B627" s="2" t="s">
+    <row r="625" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B625" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C625" s="23"/>
+      <c r="D625" s="23"/>
+      <c r="E625" s="23"/>
+    </row>
+    <row r="628" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B628" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C627" s="3"/>
-      <c r="D627" s="3"/>
-      <c r="E627" s="3"/>
-    </row>
-    <row r="629" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B629" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C629" s="10" t="s">
-        <v>307</v>
-      </c>
+      <c r="C628" s="3"/>
+      <c r="D628" s="3"/>
+      <c r="E628" s="3"/>
     </row>
     <row r="630" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B630" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C630" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="C630" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="631" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B631" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="632" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B632" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="633" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B633" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C632" s="4" t="s">
+      <c r="C633" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="633" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B633" s="5"/>
-    </row>
     <row r="634" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B634" s="5" t="s">
+      <c r="B634" s="5"/>
+    </row>
+    <row r="635" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B635" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="635" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B635" s="6" t="s">
+    <row r="636" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B636" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C635" s="6" t="s">
+      <c r="C636" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D635" s="6" t="s">
+      <c r="D636" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E635" s="6" t="s">
+      <c r="E636" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="636" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B636" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C636" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D636" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E636" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="637" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B637" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D637" s="7" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
       <c r="E637" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="638" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B638" s="7" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D638" s="7" t="s">
         <v>258</v>
       </c>
       <c r="E638" s="7" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
     </row>
     <row r="639" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B639" s="7" t="s">
-        <v>112</v>
+        <v>308</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="D639" s="7" t="s">
-        <v>9</v>
+        <v>258</v>
       </c>
       <c r="E639" s="7" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
     </row>
     <row r="640" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B640" s="7" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D640" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E640" s="7" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
     </row>
     <row r="641" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B641" s="7" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C641" s="7" t="s">
         <v>2</v>
@@ -13842,12 +13860,12 @@
         <v>9</v>
       </c>
       <c r="E641" s="7" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="642" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B642" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C642" s="7" t="s">
         <v>2</v>
@@ -13856,40 +13874,40 @@
         <v>9</v>
       </c>
       <c r="E642" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="643" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B643" s="7" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D643" s="7" t="s">
-        <v>179</v>
+        <v>9</v>
       </c>
       <c r="E643" s="7" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
     </row>
     <row r="644" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B644" s="7" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="D644" s="7" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E644" s="7" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
     </row>
     <row r="645" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B645" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C645" s="7" t="s">
         <v>2</v>
@@ -13898,125 +13916,125 @@
         <v>9</v>
       </c>
       <c r="E645" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="646" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B646" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D646" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E646" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="647" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B647" s="5" t="s">
+    <row r="648" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B648" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="648" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B648" s="6" t="s">
+    <row r="649" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B649" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C648" s="6" t="s">
+      <c r="C649" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D648" s="6" t="s">
+      <c r="D649" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E648" s="6" t="s">
+      <c r="E649" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="649" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B649" s="7" t="s">
+    <row r="650" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B650" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C649" s="7" t="s">
+      <c r="C650" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D649" s="7" t="s">
+      <c r="D650" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E649" s="7" t="s">
+      <c r="E650" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="650" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B650" s="27"/>
-      <c r="C650" s="27"/>
-      <c r="D650" s="27"/>
-      <c r="E650" s="27"/>
-    </row>
-    <row r="652" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B652" s="2" t="s">
+    <row r="651" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B651" s="27"/>
+      <c r="C651" s="27"/>
+      <c r="D651" s="27"/>
+      <c r="E651" s="27"/>
+    </row>
+    <row r="653" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B653" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C652" s="3"/>
-      <c r="D652" s="3"/>
-      <c r="E652" s="3"/>
-    </row>
-    <row r="654" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B654" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C654" s="8"/>
+      <c r="C653" s="3"/>
+      <c r="D653" s="3"/>
+      <c r="E653" s="3"/>
     </row>
     <row r="655" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B655" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C655" s="4" t="s">
-        <v>252</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C655" s="8"/>
     </row>
     <row r="656" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B656" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
     </row>
     <row r="657" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B657" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="658" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B658" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C657" s="4" t="s">
+      <c r="C658" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="658" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B658" s="5"/>
-    </row>
     <row r="659" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B659" s="5" t="s">
+      <c r="B659" s="5"/>
+    </row>
+    <row r="660" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B660" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="660" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B660" s="6" t="s">
+    <row r="661" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B661" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C660" s="6" t="s">
+      <c r="C661" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D660" s="6" t="s">
+      <c r="D661" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E660" s="6" t="s">
+      <c r="E661" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="661" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B661" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C661" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D661" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E661" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="662" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B662" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>64</v>
@@ -14025,879 +14043,893 @@
         <v>9</v>
       </c>
       <c r="E662" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="663" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B663" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D663" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E663" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="664" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B664" s="5" t="s">
+    <row r="665" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B665" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="665" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B665" s="6" t="s">
+    <row r="666" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B666" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C665" s="6" t="s">
+      <c r="C666" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D665" s="6" t="s">
+      <c r="D666" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E665" s="6" t="s">
+      <c r="E666" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="666" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B666" s="7"/>
-      <c r="C666" s="7" t="s">
+    <row r="667" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B667" s="7"/>
+      <c r="C667" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D666" s="7" t="s">
+      <c r="D667" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E666" s="7" t="s">
+      <c r="E667" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="668" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B668" s="5" t="s">
+    <row r="669" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B669" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="669" spans="2:5" ht="291" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B669" s="35" t="s">
+    <row r="670" spans="2:5" ht="291" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B670" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C669" s="35"/>
-      <c r="D669" s="35"/>
-      <c r="E669" s="35"/>
-    </row>
-    <row r="672" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B672" s="2" t="s">
+      <c r="C670" s="35"/>
+      <c r="D670" s="35"/>
+      <c r="E670" s="35"/>
+    </row>
+    <row r="673" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B673" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C672" s="3"/>
-      <c r="D672" s="3"/>
-      <c r="E672" s="3"/>
-    </row>
-    <row r="674" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B674" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C674" s="8"/>
+      <c r="C673" s="3"/>
+      <c r="D673" s="3"/>
+      <c r="E673" s="3"/>
     </row>
     <row r="675" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B675" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C675" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C675" s="8"/>
     </row>
     <row r="676" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B676" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="677" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B677" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C677" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="678" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B678" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C677" s="4" t="s">
+      <c r="C678" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="678" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B678" s="5"/>
-    </row>
     <row r="679" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B679" s="5" t="s">
+      <c r="B679" s="5"/>
+    </row>
+    <row r="680" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B680" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="680" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B680" s="6" t="s">
+    <row r="681" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B681" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C680" s="6" t="s">
+      <c r="C681" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D680" s="6" t="s">
+      <c r="D681" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E680" s="6" t="s">
+      <c r="E681" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="681" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B681" s="9"/>
-      <c r="C681" s="9"/>
-      <c r="D681" s="9"/>
-      <c r="E681" s="9"/>
-    </row>
     <row r="682" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B682" s="10"/>
-      <c r="C682" s="10"/>
-      <c r="D682" s="10"/>
-      <c r="E682" s="10"/>
+      <c r="B682" s="9"/>
+      <c r="C682" s="9"/>
+      <c r="D682" s="9"/>
+      <c r="E682" s="9"/>
     </row>
     <row r="683" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B683" s="5" t="s">
+      <c r="B683" s="10"/>
+      <c r="C683" s="10"/>
+      <c r="D683" s="10"/>
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B684" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="684" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B684" s="4" t="s">
+    <row r="685" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B685" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B687" s="2" t="s">
+    <row r="688" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B688" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C687" s="3"/>
-      <c r="D687" s="3"/>
-      <c r="E687" s="3"/>
-    </row>
-    <row r="689" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B689" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C689" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="C688" s="3"/>
+      <c r="D688" s="3"/>
+      <c r="E688" s="3"/>
     </row>
     <row r="690" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B690" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C690" s="4" t="s">
-        <v>263</v>
+        <v>5</v>
+      </c>
+      <c r="C690" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="691" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B691" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
     </row>
     <row r="692" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B692" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C692" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="693" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B693" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C692" s="4" t="s">
+      <c r="C693" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="693" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B693" s="5"/>
-    </row>
     <row r="694" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B694" s="5" t="s">
+      <c r="B694" s="5"/>
+    </row>
+    <row r="695" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B695" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B695" s="6" t="s">
+    <row r="696" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B696" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C695" s="6" t="s">
+      <c r="C696" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D695" s="6" t="s">
+      <c r="D696" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E695" s="6" t="s">
+      <c r="E696" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="696" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B696" s="7" t="s">
+    <row r="697" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B697" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C696" s="7" t="s">
+      <c r="C697" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D696" s="7" t="s">
+      <c r="D697" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E696" s="7" t="s">
+      <c r="E697" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="697" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B697" s="26"/>
-      <c r="C697" s="26" t="s">
+    <row r="698" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B698" s="26"/>
+      <c r="C698" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D697" s="26" t="s">
+      <c r="D698" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E697" s="26" t="s">
+      <c r="E698" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="699" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B699" s="5" t="s">
+    <row r="700" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B700" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="700" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B700" s="4" t="s">
+    <row r="701" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B701" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="703" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B703" s="2" t="s">
+    <row r="704" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B704" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C703" s="3"/>
-      <c r="D703" s="3"/>
-      <c r="E703" s="3"/>
-    </row>
-    <row r="705" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B705" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C705" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="C704" s="3"/>
+      <c r="D704" s="3"/>
+      <c r="E704" s="3"/>
     </row>
     <row r="706" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B706" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C706" s="4" t="s">
-        <v>263</v>
+        <v>5</v>
+      </c>
+      <c r="C706" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="707" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B707" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
     </row>
     <row r="708" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B708" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C708" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="709" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B709" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C708" s="4" t="s">
+      <c r="C709" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="709" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B709" s="5"/>
-    </row>
     <row r="710" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B710" s="5" t="s">
+      <c r="B710" s="5"/>
+    </row>
+    <row r="711" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B711" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="711" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B711" s="6" t="s">
+    <row r="712" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B712" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C711" s="6" t="s">
+      <c r="C712" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D711" s="6" t="s">
+      <c r="D712" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E711" s="6" t="s">
+      <c r="E712" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="712" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B712" s="26"/>
-      <c r="C712" s="26" t="s">
+    <row r="713" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B713" s="26"/>
+      <c r="C713" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D712" s="26" t="s">
+      <c r="D713" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E712" s="26" t="s">
+      <c r="E713" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="714" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B714" s="5" t="s">
+    <row r="715" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B715" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="715" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B715" s="4" t="s">
+    <row r="716" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B716" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="718" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B718" s="2" t="s">
+    <row r="719" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B719" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C718" s="3"/>
-      <c r="D718" s="3"/>
-      <c r="E718" s="3"/>
-    </row>
-    <row r="720" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B720" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C720" s="8"/>
+      <c r="C719" s="3"/>
+      <c r="D719" s="3"/>
+      <c r="E719" s="3"/>
     </row>
     <row r="721" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B721" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C721" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C721" s="8"/>
     </row>
     <row r="722" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B722" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="723" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B723" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C723" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="724" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B724" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C723" s="4" t="s">
+      <c r="C724" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="724" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B724" s="5"/>
-    </row>
     <row r="725" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B725" s="5" t="s">
+      <c r="B725" s="5"/>
+    </row>
+    <row r="726" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B726" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="726" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B726" s="4" t="s">
+    <row r="727" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B727" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="728" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B728" s="5" t="s">
+    <row r="729" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B729" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="729" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B729" s="6" t="s">
+    <row r="730" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B730" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C729" s="6" t="s">
+      <c r="C730" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D729" s="6" t="s">
+      <c r="D730" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E729" s="6" t="s">
+      <c r="E730" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="730" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B730" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C730" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D730" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E730" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="731" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B731" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C731" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D731" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="732" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B732" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C731" s="7" t="s">
+      <c r="C732" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D731" s="7" t="s">
+      <c r="D732" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="E731" s="7" t="s">
+      <c r="E732" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="732" spans="2:5" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="733" spans="2:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="734" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B734" s="21" t="s">
+    <row r="734" spans="2:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="735" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B735" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="C734" s="22"/>
-      <c r="D734" s="22"/>
-      <c r="E734" s="22"/>
-    </row>
-    <row r="735" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B735" s="23"/>
-      <c r="C735" s="23"/>
-      <c r="D735" s="23"/>
-      <c r="E735" s="23"/>
+      <c r="C735" s="22"/>
+      <c r="D735" s="22"/>
+      <c r="E735" s="22"/>
     </row>
     <row r="736" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B736" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C736" s="23" t="s">
-        <v>360</v>
-      </c>
+      <c r="B736" s="23"/>
+      <c r="C736" s="23"/>
       <c r="D736" s="23"/>
       <c r="E736" s="23"/>
     </row>
     <row r="737" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B737" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C737" s="23" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="D737" s="23"/>
       <c r="E737" s="23"/>
     </row>
     <row r="738" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B738" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C738" s="23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D738" s="23"/>
       <c r="E738" s="23"/>
     </row>
     <row r="739" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B739" s="24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C739" s="23" t="s">
-        <v>365</v>
+        <v>34</v>
       </c>
       <c r="D739" s="23"/>
       <c r="E739" s="23"/>
     </row>
     <row r="740" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B740" s="24"/>
-      <c r="C740" s="23"/>
+      <c r="B740" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C740" s="23" t="s">
+        <v>365</v>
+      </c>
       <c r="D740" s="23"/>
       <c r="E740" s="23"/>
     </row>
     <row r="741" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B741" s="24" t="s">
-        <v>18</v>
-      </c>
+      <c r="B741" s="24"/>
       <c r="C741" s="23"/>
       <c r="D741" s="23"/>
       <c r="E741" s="23"/>
     </row>
     <row r="742" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B742" s="23" t="s">
-        <v>352</v>
+      <c r="B742" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C742" s="23"/>
       <c r="D742" s="23"/>
       <c r="E742" s="23"/>
     </row>
     <row r="743" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B743" s="23"/>
+      <c r="B743" s="23" t="s">
+        <v>352</v>
+      </c>
       <c r="C743" s="23"/>
       <c r="D743" s="23"/>
       <c r="E743" s="23"/>
     </row>
     <row r="744" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B744" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="B744" s="23"/>
       <c r="C744" s="23"/>
       <c r="D744" s="23"/>
       <c r="E744" s="23"/>
     </row>
     <row r="745" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B745" s="25" t="s">
+      <c r="B745" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C745" s="23"/>
+      <c r="D745" s="23"/>
+      <c r="E745" s="23"/>
+    </row>
+    <row r="746" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B746" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C745" s="25" t="s">
+      <c r="C746" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D745" s="25" t="s">
+      <c r="D746" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E745" s="25" t="s">
+      <c r="E746" s="25" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="746" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B746" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C746" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D746" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E746" s="11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="747" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B747" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C747" s="11" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D747" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E747" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="748" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B748" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C748" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D748" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E748" s="11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="748" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B748" s="23"/>
-      <c r="C748" s="23"/>
-      <c r="D748" s="23"/>
-      <c r="E748" s="23"/>
-    </row>
     <row r="749" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B749" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="B749" s="23"/>
       <c r="C749" s="23"/>
       <c r="D749" s="23"/>
       <c r="E749" s="23"/>
     </row>
-    <row r="750" spans="2:5" ht="301.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B750" s="37" t="s">
+    <row r="750" spans="2:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B750" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C750" s="23"/>
+      <c r="D750" s="23"/>
+      <c r="E750" s="23"/>
+    </row>
+    <row r="751" spans="2:5" ht="301.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B751" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="C750" s="37"/>
-      <c r="D750" s="37"/>
-      <c r="E750" s="37"/>
-    </row>
-    <row r="751" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B751" s="12"/>
-      <c r="C751" s="12"/>
-      <c r="D751" s="12"/>
-      <c r="E751" s="12"/>
-    </row>
-    <row r="753" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B753" s="2" t="s">
+      <c r="C751" s="36"/>
+      <c r="D751" s="36"/>
+      <c r="E751" s="36"/>
+    </row>
+    <row r="752" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B752" s="12"/>
+      <c r="C752" s="12"/>
+      <c r="D752" s="12"/>
+      <c r="E752" s="12"/>
+    </row>
+    <row r="754" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B754" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C753" s="3"/>
-      <c r="D753" s="3"/>
-      <c r="E753" s="3"/>
-    </row>
-    <row r="755" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B755" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C755" s="10" t="s">
-        <v>355</v>
-      </c>
+      <c r="C754" s="3"/>
+      <c r="D754" s="3"/>
+      <c r="E754" s="3"/>
     </row>
     <row r="756" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B756" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C756" s="4" t="s">
-        <v>252</v>
+        <v>5</v>
+      </c>
+      <c r="C756" s="10" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="757" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B757" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C757" s="4" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
     </row>
     <row r="758" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B758" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C758" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="759" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B759" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C758" s="4" t="s">
+      <c r="C759" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="759" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B759" s="5"/>
-    </row>
     <row r="760" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B760" s="5" t="s">
+      <c r="B760" s="5"/>
+    </row>
+    <row r="761" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B761" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="761" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B761" s="6" t="s">
+    <row r="762" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B762" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C761" s="6" t="s">
+      <c r="C762" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D761" s="6" t="s">
+      <c r="D762" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E761" s="6" t="s">
+      <c r="E762" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="762" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B762" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C762" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D762" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="E762" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="763" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B763" s="7" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>64</v>
+        <v>357</v>
       </c>
       <c r="D763" s="7" t="s">
-        <v>9</v>
+        <v>393</v>
       </c>
       <c r="E763" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="764" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B764" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C764" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D764" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="765" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B765" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C764" s="7" t="s">
+      <c r="C765" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D764" s="7" t="s">
+      <c r="D765" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E764" s="7" t="s">
+      <c r="E765" s="7" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="766" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B766" s="5" t="s">
+    <row r="767" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B767" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="767" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B767" s="6" t="s">
+    <row r="768" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B768" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C767" s="6" t="s">
+      <c r="C768" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D767" s="6" t="s">
+      <c r="D768" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E767" s="6" t="s">
+      <c r="E768" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="768" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B768" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C768" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D768" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E768" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="769" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B769" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C769" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D769" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E769" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="770" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B770" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C769" s="7" t="s">
+      <c r="C770" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D769" s="7" t="s">
+      <c r="D770" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="E769" s="7" t="s">
+      <c r="E770" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="771" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B771" s="5" t="s">
+    <row r="772" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B772" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="772" spans="2:5" ht="303" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B772" s="35" t="s">
+    <row r="773" spans="2:5" ht="303" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B773" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="C772" s="35"/>
-      <c r="D772" s="35"/>
-      <c r="E772" s="35"/>
-    </row>
-    <row r="774" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B774" s="2" t="s">
+      <c r="C773" s="35"/>
+      <c r="D773" s="35"/>
+      <c r="E773" s="35"/>
+    </row>
+    <row r="775" spans="2:5" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B775" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C774" s="3"/>
-      <c r="D774" s="3"/>
-      <c r="E774" s="3"/>
-    </row>
-    <row r="776" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B776" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C776" s="10" t="s">
-        <v>329</v>
-      </c>
+      <c r="C775" s="3"/>
+      <c r="D775" s="3"/>
+      <c r="E775" s="3"/>
     </row>
     <row r="777" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B777" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C777" s="4" t="s">
-        <v>263</v>
+        <v>5</v>
+      </c>
+      <c r="C777" s="10" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="778" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B778" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
     </row>
     <row r="779" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B779" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C779" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="780" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B780" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C779" s="4" t="s">
+      <c r="C780" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="780" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B780" s="5"/>
-    </row>
     <row r="781" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B781" s="5" t="s">
+      <c r="B781" s="5"/>
+    </row>
+    <row r="782" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B782" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="782" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B782" s="6" t="s">
+    <row r="783" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B783" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C782" s="6" t="s">
+      <c r="C783" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D782" s="6" t="s">
+      <c r="D783" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E782" s="6" t="s">
+      <c r="E783" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="783" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B783" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C783" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D783" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E783" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="784" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B784" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C784" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D784" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E784" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="785" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B785" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C784" s="7" t="s">
+      <c r="C785" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D784" s="7" t="s">
+      <c r="D785" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E784" s="7" t="s">
+      <c r="E785" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="786" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B786" s="5" t="s">
+    <row r="787" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B787" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="787" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B787" s="6" t="s">
+    <row r="788" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B788" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C787" s="6" t="s">
+      <c r="C788" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D787" s="6" t="s">
+      <c r="D788" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E787" s="6" t="s">
+      <c r="E788" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B788" s="7" t="s">
+    <row r="789" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B789" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C788" s="7" t="s">
+      <c r="C789" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D788" s="7" t="s">
+      <c r="D789" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E788" s="7" t="s">
+      <c r="E789" s="7" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B772:E772"/>
-    <mergeCell ref="B750:E750"/>
-    <mergeCell ref="B275:E275"/>
-    <mergeCell ref="B669:E669"/>
-    <mergeCell ref="B296:E296"/>
     <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B252:E252"/>
-    <mergeCell ref="B608:E608"/>
-    <mergeCell ref="B337:E337"/>
-    <mergeCell ref="B435:E435"/>
-    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="B609:E609"/>
+    <mergeCell ref="B338:E338"/>
+    <mergeCell ref="B436:E436"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B773:E773"/>
+    <mergeCell ref="B751:E751"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B670:E670"/>
+    <mergeCell ref="B297:E297"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
